--- a/Dataset/Folds/Fold_2/Excel/106.xlsx
+++ b/Dataset/Folds/Fold_2/Excel/106.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3440" uniqueCount="505">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3848" uniqueCount="560">
   <si>
     <t>Doi</t>
   </si>
@@ -1685,6 +1685,215 @@
   </si>
   <si>
     <t>[Joe%Zhang%NULL%1,                           Blair%Merrick%NULL%2,                           Blair%Merrick%NULL%0,                           Genex L.%Correa%NULL%1,                           Luigi%Camporota%NULL%1,                           Andrew%Retter%NULL%1,                           Andrew%Doyle%NULL%1,                           Guy W.%Glover%NULL%2,                           Guy W.%Glover%NULL%0,                           Peter B.%Sherren%NULL%1,                           Stephen J.%Tricklebank%NULL%1,                           Sangita%Agarwal%NULL%1,                           Boris E.%Lams%NULL%1,                           Nicholas A.%Barrett%NULL%1,                           Nicholas%Ioannou%NULL%1,                           Jonathan%Edgeworth%NULL%1,                           Christopher I.S.%Meadows%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Waqas%Akhtar%NULL%1,                            Olusegun%Olusanya%NULL%2,                            Olusegun%Olusanya%NULL%0,                            Marta Montero%Baladia%NULL%1,                            Harriet%Young%NULL%1,                            Sachin%Shah%s.shah4@nhs.net%1]</t>
+  </si>
+  <si>
+    <t>[Ryan P%Barbaro%NULL%0,                            Graeme%MacLaren%NULL%1,                            Philip S%Boonstra%NULL%1,                            Theodore J%Iwashyna%NULL%1,                            Arthur S%Slutsky%NULL%1,                            Eddy%Fan%NULL%1,                            Robert H%Bartlett%NULL%1,                            Joseph E%Tonna%NULL%1,                            Robert%Hyslop%NULL%1,                            Jeffrey J%Fanning%NULL%1,                            Peter T%Rycus%NULL%1,                            Steve J%Hyer%NULL%1,                            Marc M%Anders%NULL%1,                            Cara L%Agerstrand%NULL%1,                            Katarzyna%Hryniewicz%NULL%1,                            Rodrigo%Diaz%NULL%1,                            Roberto%Lorusso%NULL%1,                            Alain%Combes%NULL%1,                            Daniel%Brodie%NULL%0,                            Peta%Alexander%NULL%1,                            Nicholas%Barrett%NULL%0,                            Jan%Bělohlávek%NULL%1,                            Dale%Fisher%NULL%1,                            John%Fraser%NULL%1,                            Ali Ait%Hssain%NULL%0,                            Jae Sung%Jung%NULL%1,                            Michael%McMullan%NULL%1,                            Yatin%Mehta%NULL%1,                            Mark T.%Ogino%NULL%1,                            Matthew L.%Paden%NULL%1,                            Kiran%Shekar%NULL%1,                            Christine%Stead%NULL%1,                            Yasir%Abu-Omar%NULL%1,                            Vanni%Agnoletti%NULL%1,                            Anzila%Akbar%NULL%1,                            Huda%Alfoudri%NULL%1,                            Carlos%Alviar%NULL%1,                            Vladimir%Aronsky%NULL%1,                            Erin%August%NULL%1,                            Georg%Auzinger%NULL%1,                            Hilda%Aveja%NULL%1,                            Rhonda%Bakken%NULL%1,                            Joan%Balcells%NULL%1,                            Sripal%Bangalore%NULL%1,                            Bernard W.%Barnes%NULL%1,                            Alaiza%Bautista%NULL%1,                            Lorraine L.%Bellows%NULL%1,                            Felipe%Beltran%NULL%1,                            Peyman%Benharash%NULL%1,                            Marco%Benni%NULL%1,                            Jennifer%Berg%NULL%1,                            Pietro%Bertini%NULL%1,                            Pablo%Blanco-Schweizer%NULL%1,                            Melissa%Brunsvold%NULL%1,                            Jenny%Budd%NULL%1,                            Debra%Camp%NULL%1,                            Mark%Caridi-Scheible%NULL%0,                            Edmund%Carton%NULL%1,                            Elena%Casanova-Ghosh%NULL%1,                            Anthony%Castleberry%NULL%1,                            Christopher T.%Chipongian%NULL%1,                            Chang Woo%Choi%NULL%1,                            Alessandro%Circelli%NULL%1,                            Elliott%Cohen%NULL%1,                            Michael%Collins%NULL%1,                            Scott%Copus%NULL%1,                            Jill%Coy%NULL%1,                            Brandon%Crist%NULL%1,                            Leonora%Cruz%NULL%1,                            Mirosław%Czuczwar%NULL%1,                            Mani%Daneshmand%NULL%1,                            Daniel%Davis II%NULL%1,                            Kim%De la Cruz%NULL%1,                            Cyndie%Devers%NULL%1,                            Toni%Duculan%NULL%1,                            Lucian%Durham%NULL%1,                            Subbarao%Elapavaluru%NULL%1,                            Carlos V.%Elzo Kraemer%NULL%1,                            EDMÍLSON CARDOSO%Filho%NULL%1,                            Jillian%Fitzgerald%NULL%1,                            Giuseppe%Foti%NULL%1,                            Matthew%Fox%NULL%1,                            David%Fritschen%NULL%1,                            David%Fullerton%NULL%1,                            Elton%Gelandt%NULL%1,                            Stacy%Gerle%NULL%1,                            Marco%Giani%NULL%1,                            Si Guim%Goh%NULL%1,                            Sara%Govener%NULL%1,                            Julie%Grone%NULL%1,                            Miles%Guber%NULL%1,                            Vadim%Gudzenko%NULL%1,                            Daniel%Gutteridge%NULL%1,                            Jennifer%Guy%NULL%1,                            Jonathan%Haft%NULL%1,                            Cameron%Hall%NULL%1,                            Ibrahim Fawzy%Hassan%NULL%1,                            Rubén%Herrán%NULL%1,                            Hitoshi%Hirose%NULL%0,                            Abdulsalam Saif%Ibrahim%NULL%1,                            Don%Igielski%NULL%1,                            Felicia A.%Ivascu%NULL%1,                            Jaume%Izquierdo Blasco%NULL%1,                            Julie%Jackson%NULL%1,                            Harsh%Jain%NULL%1,                            Bhavini%Jaiswal%NULL%1,                            Andrea C.%Johnson%NULL%1,                            Jenniver A.%Jurynec%NULL%1,                            Norma M%Kellter%NULL%1,                            Adam%Kohl%NULL%1,                            Zachary%Kon%NULL%1,                            Markus%Kredel%NULL%1,                            Karen%Kriska%NULL%1,                            Chandra%Kunavarapu%NULL%1,                            Oude%Lansink-Hartgring%NULL%1,                            Jeliene%LaRocque%NULL%1,                            Sharon Beth%Larson%NULL%1,                            Tracie%Layne%NULL%1,                            Stephane%Ledot%NULL%1,                            Napolitan%Lena%NULL%1,                            Jonathan%Lillie%NULL%1,                            Gösta%Lotz%NULL%1,                            Mark%Lucas%NULL%1,                            Lee%Ludwigson%NULL%1,                            Jacinta J.%Maas%NULL%1,                            Joanna%Maertens%NULL%1,                            David%Mast%NULL%1,                            Scott%McCardle%NULL%1,                            Bernard%McDonald%NULL%1,                            Allison%McLarty%NULL%1,                            Chelsea%McMahon%NULL%1,                            Patrick%Meybohm%NULL%1,                            Bart%Meyns%NULL%1,                            Casey%Miller%NULL%1,                            Fernando%Moraes Neto%NULL%1,                            Kelly%Morris%NULL%1,                            Ralf%Muellenbach%NULL%1,                            Meghan%Nicholson%NULL%1,                            Serena%O'Brien%NULL%1,                            Kathryn%O'Keefe%NULL%1,                            Tawnya%Ogston%NULL%1,                            Gary%Oldenburg%NULL%1,                            Fabiana M.%Oliveira%NULL%1,                            Emily%Oppel%NULL%1,                            Diego%Pardo%NULL%2,                            Diego%Pardo%NULL%0,                            Sara J.%Parker%NULL%1,                            Finn M.%Pedersen%NULL%1,                            Crescens%Pellecchia%NULL%1,                            Jose A.S.%Pelligrini%NULL%1,                            Thao T.N.%Pham%NULL%1,                            Ann R.%Phillips%NULL%1,                            Tasneem%Pirani%NULL%1,                            Paweł%Piwowarczyk%NULL%1,                            Robert%Plambeck%NULL%1,                            William%Pruett%NULL%1,                            Brittany%Quandt%NULL%1,                            Kollengode%Ramanathan%NULL%1,                            Alejandro%Rey%NULL%1,                            Christian%Reyher%NULL%1,                            Jordi%Riera del Brio%NULL%1,                            Rachel%Roberts%NULL%1,                            David%Roe%NULL%1,                            Peter P.%Roeleveld%NULL%1,                            Janet%Rudy%NULL%1,                            Luis F.%Rueda%NULL%1,                            Emanuele%Russo%NULL%1,                            Jesús%Sánchez Ballesteros%NULL%1,                            Nancy%Satou%NULL%1,                            Mauricio Guidi%Saueressig%NULL%1,                            Paul C.%Saunders%NULL%1,                            Margaret%Schlotterbeck%NULL%1,                            Patricia%Schwarz%NULL%1,                            Nicole%Scriven%NULL%1,                            Alexis%Serra%NULL%1,                            Mohammad%Shamsah%NULL%1,                            Lucy%Sim%NULL%1,                            Alexandra%Smart%NULL%1,                            Adam%Smith%NULL%1,                            Deane%Smith%NULL%1,                            Maggie%Smith%NULL%1,                            Neel%Sodha%NULL%1,                            Michael%Sonntagbauer%NULL%1,                            Marc%Sorenson%NULL%1,                            Eric B%Stallkamp%NULL%1,                            Allison%Stewart%NULL%1,                            Kathy%Swartz%NULL%1,                            Koji%Takeda%NULL%1,                            Shaun%Thompson%NULL%1,                            Bridget%Toy%NULL%1,                            Divina%Tuazon%NULL%1,                            Makoto%Uchiyama%NULL%1,                            Obiora I.%Udeozo%NULL%1,                            Scott%van Poppel%NULL%1,                            Corey%Ventetuolo%NULL%1,                            Leen%Vercaemst%NULL%1,                            Nguyen V.%Vinh Chau%NULL%1,                            I-Wen%Wang%NULL%1,                            Carrie%Williamson%NULL%1,                            Brock%Wilson%NULL%1,                            Helen%Winkels%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Matthew%Charlton%NULL%1,                            Susan%Dashey%NULL%1,                            Abigail%Stubbs%NULL%1,                            Florence YL%Lai%NULL%1,                            Paul W%Bird%NULL%1,                            Vinay%Badhwar%NULL%1,                            Julian W%Tang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Nicolas%Cousin%Nicolas.COUSIN@CHRU-LILLE.FR%1,                            Claire%Bourel%claire.bourel.etu@univ-lille.fr%1,                            Dorothee%Carpentier%Dorothee.Carpentier@chu-rouen.fr%1,                            Julien%Goutay%Julien.LABREUCHE@CHRU-LILLE.FR%1,                            Agnes%Mugnier%Agnes.MUGNIER@CHRU-LILLE.FR%1,                            Julien%Labreuche%Julien.LABREUCHE@CHRU-LILLE.FR%1,                            Elise%Godeau%elisegodeau@gmail.com%1,                            Thomas%Clavier%thomas.clavier@chu-rouen.fr%1,                            Steven%Grange%Steven.Grange@chu-rouen.fr%1,                            Fabienne%Tamion%Fabienne.Tamion@chu-rouen.fr%1,                            Arthur%Durand%Arthur.DURAND@CHRU-LILLE.FR%1,                            Mouhamed D.%Moussa%Mouhamed.MOUSSA@CHRU-LILLE.FR%1,                            Thibault%Duburcq%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Pierre-Emmanuel%Falcoz%NULL%1,                            Alexandra%Monnier%NULL%1,                            Marc%Puyraveau%NULL%1,                            Stephanie%Perrier%NULL%1,                            Pierre-Olivier%Ludes%NULL%1,                            Anne%Olland%NULL%1,                            Paul-Michel%Mertes%NULL%2,                            Francis%Schneider%NULL%2,                            Julie%Helms%NULL%3,                            NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Pierre%Huette%huette.pierre@chu-amiens.fr%1,                            Christophe%Beyls%NULL%2,                            Christophe%Beyls%NULL%0,                            Mathieu%Guilbart%NULL%1,                            Alexandre%Coquet%NULL%1,                            Pascal%Berna%NULL%1,                            Guillaume%Haye%NULL%1,                            Pierre-Alexandre%Roger%NULL%1,                            Patricia%Besserve%NULL%1,                            Michael%Bernasinski%NULL%1,                            Hervé%Dupont%NULL%1,                            Osama%Abou-Arab%NULL%1,                            Yazine%Mahjoub%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Markus%Jäckel%markus.jaeckel@universitaets-herzzentrum.de%1,                            Jonathan%Rilinger%NULL%2,                            Jonathan%Rilinger%NULL%0,                            Corinna Nadine%Lang%NULL%2,                            Corinna Nadine%Lang%NULL%0,                            Viviane%Zotzmann%NULL%1,                            Klaus%Kaier%NULL%1,                            Peter%Stachon%NULL%1,                            Paul Marc%Biever%NULL%1,                            Tobias%Wengenmayer%NULL%1,                            Daniel%Duerschmied%NULL%1,                            Christoph%Bode%NULL%1,                            Dawid Leander%Staudacher%NULL%1,                            Alexander%Supady%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Woo Sung%Jang%NULL%1,                            JaeBum%Kim%NULL%1,                            Jonghyun%Baek%NULL%1,                            Hanna%Jung%NULL%1,                            Jae Seok%Jang%NULL%1,                            Jae Seok%Park%NULL%0,                            Tak-Hyuk%Oh%NULL%1,                            Se Yong%Jang%NULL%1,                            Yun Seok%Kim%NULL%1,                            Yong Shik%Kwon%NULL%0]</t>
+  </si>
+  <si>
+    <t>[C.%Le Breton%NULL%1,                            S.%Besset%NULL%1,                            S.%Freita-Ramos%NULL%1,                            M.%Amouretti%NULL%1,                            P.A.%Billiet%NULL%1,                            M.%Dao%NULL%1,                            L.M.%Dumont%NULL%1,                            L.%Federici%NULL%1,                            B.%Gaborieau%NULL%1,                            D.%Longrois%NULL%1,                            P.%Postel-Vinay%NULL%1,                            C.%Vuillard%NULL%1,                            N.%Zucman%NULL%1,                            G.%Lebreton%NULL%1,                            A.%Combes%NULL%1,                            D.%Dreyfuss%NULL%1,                            J.D.%Ricard%NULL%1,                            D.%Roux%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Mathieu%Jozwiak%NULL%1,                            Jean-Daniel%Chiche%NULL%1,                            Julien%Charpentier%NULL%1,                            Zakaria%Ait Hamou%NULL%1,                            Paul%Jaubert%NULL%1,                            Sarah%Benghanem%NULL%1,                            Pierre%Dupland%NULL%1,                            Ariane%Gavaud%NULL%1,                            Frédéric%Péne%NULL%1,                            Alain%Cariou%NULL%1,                            Jean-Paul%Mira%NULL%1,                            Lee S.%Nguyen%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Kevin%Roedl%NULL%0,                            Dominik%Jarczak%NULL%1,                            Liina%Thasler%NULL%1,                            Martin%Bachmann%NULL%1,                            Frank%Schulte%NULL%1,                            Berthold%Bein%NULL%1,                            Christian Friedrich%Weber%NULL%1,                            Ulrich%Schäfer%NULL%1,                            Carsten%Veit%NULL%1,                            Hans-Peter%Hauber%NULL%1,                            Sebastian%Kopp%NULL%1,                            Karsten%Sydow%NULL%1,                            Andreas%de Weerth%NULL%1,                            Marc%Bota%NULL%1,                            Rüdiger%Schreiber%NULL%1,                            Oliver%Detsch%NULL%1,                            Jan-Peer%Rogmann%NULL%1,                            Daniel%Frings%NULL%1,                            Barbara%Sensen%NULL%1,                            Christoph%Burdelski%NULL%1,                            Olaf%Boenisch%NULL%1,                            Axel%Nierhaus%NULL%1,                            Geraldine%de Heer%NULL%1,                            Stefan%Kluge%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Emily%Shih%NULL%1,                            J. Michael%DiMaio%NULL%1,                            John J.%Squiers%NULL%1,                            Jasjit K.%Banwait%NULL%1,                            Dan M.%Meyer%NULL%1,                            Timothy J.%George%NULL%1,                            Gary S.%Schwartz%NULL%1,                            Britton A.%Blough%NULL%1,                            Robert L.%Gottlieb%NULL%1,                            Gonzo%Gonzalez-Stawinski%NULL%1,                            Anita R.%Krueger%NULL%1,                            Kara%Monday%NULL%1,                            Ramachandra C.%Reddy%NULL%1,                            Jorge F.%Velazco%NULL%1,                            Omar%Hernandez%NULL%1,                            Chris%Martin%NULL%1,                            Jenelle%Sheasby%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Joe%Zhang%NULL%1,                            Blair%Merrick%NULL%2,                            Blair%Merrick%NULL%0,                            Genex L.%Correa%NULL%1,                            Luigi%Camporota%NULL%1,                            Andrew%Retter%NULL%1,                            Andrew%Doyle%NULL%1,                            Guy W.%Glover%NULL%2,                            Guy W.%Glover%NULL%0,                            Peter B.%Sherren%NULL%1,                            Stephen J.%Tricklebank%NULL%1,                            Sangita%Agarwal%NULL%1,                            Boris E.%Lams%NULL%1,                            Nicholas A.%Barrett%NULL%1,                            Nicholas%Ioannou%NULL%1,                            Jonathan%Edgeworth%NULL%1,                            Christopher I.S.%Meadows%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Waqas%Akhtar%NULL%1,                             Olusegun%Olusanya%NULL%2,                             Olusegun%Olusanya%NULL%0,                             Marta Montero%Baladia%NULL%1,                             Harriet%Young%NULL%1,                             Sachin%Shah%s.shah4@nhs.net%1]</t>
+  </si>
+  <si>
+    <t>[Ryan P%Barbaro%NULL%0,                             Graeme%MacLaren%NULL%1,                             Philip S%Boonstra%NULL%1,                             Theodore J%Iwashyna%NULL%1,                             Arthur S%Slutsky%NULL%1,                             Eddy%Fan%NULL%1,                             Robert H%Bartlett%NULL%1,                             Joseph E%Tonna%NULL%1,                             Robert%Hyslop%NULL%1,                             Jeffrey J%Fanning%NULL%1,                             Peter T%Rycus%NULL%1,                             Steve J%Hyer%NULL%1,                             Marc M%Anders%NULL%1,                             Cara L%Agerstrand%NULL%1,                             Katarzyna%Hryniewicz%NULL%1,                             Rodrigo%Diaz%NULL%1,                             Roberto%Lorusso%NULL%1,                             Alain%Combes%NULL%1,                             Daniel%Brodie%NULL%0,                             Peta%Alexander%NULL%1,                             Nicholas%Barrett%NULL%0,                             Jan%Bělohlávek%NULL%1,                             Dale%Fisher%NULL%1,                             John%Fraser%NULL%1,                             Ali Ait%Hssain%NULL%0,                             Jae Sung%Jung%NULL%1,                             Michael%McMullan%NULL%1,                             Yatin%Mehta%NULL%1,                             Mark T.%Ogino%NULL%1,                             Matthew L.%Paden%NULL%1,                             Kiran%Shekar%NULL%1,                             Christine%Stead%NULL%1,                             Yasir%Abu-Omar%NULL%1,                             Vanni%Agnoletti%NULL%1,                             Anzila%Akbar%NULL%1,                             Huda%Alfoudri%NULL%1,                             Carlos%Alviar%NULL%1,                             Vladimir%Aronsky%NULL%1,                             Erin%August%NULL%1,                             Georg%Auzinger%NULL%1,                             Hilda%Aveja%NULL%1,                             Rhonda%Bakken%NULL%1,                             Joan%Balcells%NULL%1,                             Sripal%Bangalore%NULL%1,                             Bernard W.%Barnes%NULL%1,                             Alaiza%Bautista%NULL%1,                             Lorraine L.%Bellows%NULL%1,                             Felipe%Beltran%NULL%1,                             Peyman%Benharash%NULL%1,                             Marco%Benni%NULL%1,                             Jennifer%Berg%NULL%1,                             Pietro%Bertini%NULL%1,                             Pablo%Blanco-Schweizer%NULL%1,                             Melissa%Brunsvold%NULL%1,                             Jenny%Budd%NULL%1,                             Debra%Camp%NULL%1,                             Mark%Caridi-Scheible%NULL%0,                             Edmund%Carton%NULL%1,                             Elena%Casanova-Ghosh%NULL%1,                             Anthony%Castleberry%NULL%1,                             Christopher T.%Chipongian%NULL%1,                             Chang Woo%Choi%NULL%1,                             Alessandro%Circelli%NULL%1,                             Elliott%Cohen%NULL%1,                             Michael%Collins%NULL%1,                             Scott%Copus%NULL%1,                             Jill%Coy%NULL%1,                             Brandon%Crist%NULL%1,                             Leonora%Cruz%NULL%1,                             Mirosław%Czuczwar%NULL%1,                             Mani%Daneshmand%NULL%1,                             Daniel%Davis II%NULL%1,                             Kim%De la Cruz%NULL%1,                             Cyndie%Devers%NULL%1,                             Toni%Duculan%NULL%1,                             Lucian%Durham%NULL%1,                             Subbarao%Elapavaluru%NULL%1,                             Carlos V.%Elzo Kraemer%NULL%1,                             EDMÍLSON CARDOSO%Filho%NULL%1,                             Jillian%Fitzgerald%NULL%1,                             Giuseppe%Foti%NULL%1,                             Matthew%Fox%NULL%1,                             David%Fritschen%NULL%1,                             David%Fullerton%NULL%1,                             Elton%Gelandt%NULL%1,                             Stacy%Gerle%NULL%1,                             Marco%Giani%NULL%1,                             Si Guim%Goh%NULL%1,                             Sara%Govener%NULL%1,                             Julie%Grone%NULL%1,                             Miles%Guber%NULL%1,                             Vadim%Gudzenko%NULL%1,                             Daniel%Gutteridge%NULL%1,                             Jennifer%Guy%NULL%1,                             Jonathan%Haft%NULL%1,                             Cameron%Hall%NULL%1,                             Ibrahim Fawzy%Hassan%NULL%1,                             Rubén%Herrán%NULL%1,                             Hitoshi%Hirose%NULL%0,                             Abdulsalam Saif%Ibrahim%NULL%1,                             Don%Igielski%NULL%1,                             Felicia A.%Ivascu%NULL%1,                             Jaume%Izquierdo Blasco%NULL%1,                             Julie%Jackson%NULL%1,                             Harsh%Jain%NULL%1,                             Bhavini%Jaiswal%NULL%1,                             Andrea C.%Johnson%NULL%1,                             Jenniver A.%Jurynec%NULL%1,                             Norma M%Kellter%NULL%1,                             Adam%Kohl%NULL%1,                             Zachary%Kon%NULL%1,                             Markus%Kredel%NULL%1,                             Karen%Kriska%NULL%1,                             Chandra%Kunavarapu%NULL%1,                             Oude%Lansink-Hartgring%NULL%1,                             Jeliene%LaRocque%NULL%1,                             Sharon Beth%Larson%NULL%1,                             Tracie%Layne%NULL%1,                             Stephane%Ledot%NULL%1,                             Napolitan%Lena%NULL%1,                             Jonathan%Lillie%NULL%1,                             Gösta%Lotz%NULL%1,                             Mark%Lucas%NULL%1,                             Lee%Ludwigson%NULL%1,                             Jacinta J.%Maas%NULL%1,                             Joanna%Maertens%NULL%1,                             David%Mast%NULL%1,                             Scott%McCardle%NULL%1,                             Bernard%McDonald%NULL%1,                             Allison%McLarty%NULL%1,                             Chelsea%McMahon%NULL%1,                             Patrick%Meybohm%NULL%1,                             Bart%Meyns%NULL%1,                             Casey%Miller%NULL%1,                             Fernando%Moraes Neto%NULL%1,                             Kelly%Morris%NULL%1,                             Ralf%Muellenbach%NULL%1,                             Meghan%Nicholson%NULL%1,                             Serena%O'Brien%NULL%1,                             Kathryn%O'Keefe%NULL%1,                             Tawnya%Ogston%NULL%1,                             Gary%Oldenburg%NULL%1,                             Fabiana M.%Oliveira%NULL%1,                             Emily%Oppel%NULL%1,                             Diego%Pardo%NULL%2,                             Diego%Pardo%NULL%0,                             Sara J.%Parker%NULL%1,                             Finn M.%Pedersen%NULL%1,                             Crescens%Pellecchia%NULL%1,                             Jose A.S.%Pelligrini%NULL%1,                             Thao T.N.%Pham%NULL%1,                             Ann R.%Phillips%NULL%1,                             Tasneem%Pirani%NULL%1,                             Paweł%Piwowarczyk%NULL%1,                             Robert%Plambeck%NULL%1,                             William%Pruett%NULL%1,                             Brittany%Quandt%NULL%1,                             Kollengode%Ramanathan%NULL%1,                             Alejandro%Rey%NULL%1,                             Christian%Reyher%NULL%1,                             Jordi%Riera del Brio%NULL%1,                             Rachel%Roberts%NULL%1,                             David%Roe%NULL%1,                             Peter P.%Roeleveld%NULL%1,                             Janet%Rudy%NULL%1,                             Luis F.%Rueda%NULL%1,                             Emanuele%Russo%NULL%1,                             Jesús%Sánchez Ballesteros%NULL%1,                             Nancy%Satou%NULL%1,                             Mauricio Guidi%Saueressig%NULL%1,                             Paul C.%Saunders%NULL%1,                             Margaret%Schlotterbeck%NULL%1,                             Patricia%Schwarz%NULL%1,                             Nicole%Scriven%NULL%1,                             Alexis%Serra%NULL%1,                             Mohammad%Shamsah%NULL%1,                             Lucy%Sim%NULL%1,                             Alexandra%Smart%NULL%1,                             Adam%Smith%NULL%1,                             Deane%Smith%NULL%1,                             Maggie%Smith%NULL%1,                             Neel%Sodha%NULL%1,                             Michael%Sonntagbauer%NULL%1,                             Marc%Sorenson%NULL%1,                             Eric B%Stallkamp%NULL%1,                             Allison%Stewart%NULL%1,                             Kathy%Swartz%NULL%1,                             Koji%Takeda%NULL%1,                             Shaun%Thompson%NULL%1,                             Bridget%Toy%NULL%1,                             Divina%Tuazon%NULL%1,                             Makoto%Uchiyama%NULL%1,                             Obiora I.%Udeozo%NULL%1,                             Scott%van Poppel%NULL%1,                             Corey%Ventetuolo%NULL%1,                             Leen%Vercaemst%NULL%1,                             Nguyen V.%Vinh Chau%NULL%1,                             I-Wen%Wang%NULL%1,                             Carrie%Williamson%NULL%1,                             Brock%Wilson%NULL%1,                             Helen%Winkels%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Matthew%Charlton%NULL%1,                             Susan%Dashey%NULL%1,                             Abigail%Stubbs%NULL%1,                             Florence YL%Lai%NULL%1,                             Paul W%Bird%NULL%1,                             Vinay%Badhwar%NULL%1,                             Julian W%Tang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Nicolas%Cousin%Nicolas.COUSIN@CHRU-LILLE.FR%1,                             Claire%Bourel%claire.bourel.etu@univ-lille.fr%1,                             Dorothee%Carpentier%Dorothee.Carpentier@chu-rouen.fr%1,                             Julien%Goutay%Julien.LABREUCHE@CHRU-LILLE.FR%1,                             Agnes%Mugnier%Agnes.MUGNIER@CHRU-LILLE.FR%1,                             Julien%Labreuche%Julien.LABREUCHE@CHRU-LILLE.FR%1,                             Elise%Godeau%elisegodeau@gmail.com%1,                             Thomas%Clavier%thomas.clavier@chu-rouen.fr%1,                             Steven%Grange%Steven.Grange@chu-rouen.fr%1,                             Fabienne%Tamion%Fabienne.Tamion@chu-rouen.fr%1,                             Arthur%Durand%Arthur.DURAND@CHRU-LILLE.FR%1,                             Mouhamed D.%Moussa%Mouhamed.MOUSSA@CHRU-LILLE.FR%1,                             Thibault%Duburcq%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Pierre-Emmanuel%Falcoz%NULL%1,                             Alexandra%Monnier%NULL%1,                             Marc%Puyraveau%NULL%1,                             Stephanie%Perrier%NULL%1,                             Pierre-Olivier%Ludes%NULL%1,                             Anne%Olland%NULL%1,                             Paul-Michel%Mertes%NULL%2,                             Francis%Schneider%NULL%2,                             Julie%Helms%NULL%3,                             NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Pierre%Huette%huette.pierre@chu-amiens.fr%1,                             Christophe%Beyls%NULL%2,                             Christophe%Beyls%NULL%0,                             Mathieu%Guilbart%NULL%1,                             Alexandre%Coquet%NULL%1,                             Pascal%Berna%NULL%1,                             Guillaume%Haye%NULL%1,                             Pierre-Alexandre%Roger%NULL%1,                             Patricia%Besserve%NULL%1,                             Michael%Bernasinski%NULL%1,                             Hervé%Dupont%NULL%1,                             Osama%Abou-Arab%NULL%1,                             Yazine%Mahjoub%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Markus%Jäckel%markus.jaeckel@universitaets-herzzentrum.de%1,                             Jonathan%Rilinger%NULL%2,                             Jonathan%Rilinger%NULL%0,                             Corinna Nadine%Lang%NULL%2,                             Corinna Nadine%Lang%NULL%0,                             Viviane%Zotzmann%NULL%1,                             Klaus%Kaier%NULL%1,                             Peter%Stachon%NULL%1,                             Paul Marc%Biever%NULL%1,                             Tobias%Wengenmayer%NULL%1,                             Daniel%Duerschmied%NULL%1,                             Christoph%Bode%NULL%1,                             Dawid Leander%Staudacher%NULL%1,                             Alexander%Supady%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Woo Sung%Jang%NULL%1,                             JaeBum%Kim%NULL%1,                             Jonghyun%Baek%NULL%1,                             Hanna%Jung%NULL%1,                             Jae Seok%Jang%NULL%1,                             Jae Seok%Park%NULL%0,                             Tak-Hyuk%Oh%NULL%1,                             Se Yong%Jang%NULL%1,                             Yun Seok%Kim%NULL%1,                             Yong Shik%Kwon%NULL%0]</t>
+  </si>
+  <si>
+    <t>[C.%Le Breton%NULL%1,                             S.%Besset%NULL%1,                             S.%Freita-Ramos%NULL%1,                             M.%Amouretti%NULL%1,                             P.A.%Billiet%NULL%1,                             M.%Dao%NULL%1,                             L.M.%Dumont%NULL%1,                             L.%Federici%NULL%1,                             B.%Gaborieau%NULL%1,                             D.%Longrois%NULL%1,                             P.%Postel-Vinay%NULL%1,                             C.%Vuillard%NULL%1,                             N.%Zucman%NULL%1,                             G.%Lebreton%NULL%1,                             A.%Combes%NULL%1,                             D.%Dreyfuss%NULL%1,                             J.D.%Ricard%NULL%1,                             D.%Roux%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Mathieu%Jozwiak%NULL%1,                             Jean-Daniel%Chiche%NULL%1,                             Julien%Charpentier%NULL%1,                             Zakaria%Ait Hamou%NULL%1,                             Paul%Jaubert%NULL%1,                             Sarah%Benghanem%NULL%1,                             Pierre%Dupland%NULL%1,                             Ariane%Gavaud%NULL%1,                             Frédéric%Péne%NULL%1,                             Alain%Cariou%NULL%1,                             Jean-Paul%Mira%NULL%1,                             Lee S.%Nguyen%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Kevin%Roedl%NULL%0,                             Dominik%Jarczak%NULL%1,                             Liina%Thasler%NULL%1,                             Martin%Bachmann%NULL%1,                             Frank%Schulte%NULL%1,                             Berthold%Bein%NULL%1,                             Christian Friedrich%Weber%NULL%1,                             Ulrich%Schäfer%NULL%1,                             Carsten%Veit%NULL%1,                             Hans-Peter%Hauber%NULL%1,                             Sebastian%Kopp%NULL%1,                             Karsten%Sydow%NULL%1,                             Andreas%de Weerth%NULL%1,                             Marc%Bota%NULL%1,                             Rüdiger%Schreiber%NULL%1,                             Oliver%Detsch%NULL%1,                             Jan-Peer%Rogmann%NULL%1,                             Daniel%Frings%NULL%1,                             Barbara%Sensen%NULL%1,                             Christoph%Burdelski%NULL%1,                             Olaf%Boenisch%NULL%1,                             Axel%Nierhaus%NULL%1,                             Geraldine%de Heer%NULL%1,                             Stefan%Kluge%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Emily%Shih%NULL%1,                             J. Michael%DiMaio%NULL%1,                             John J.%Squiers%NULL%1,                             Jasjit K.%Banwait%NULL%1,                             Dan M.%Meyer%NULL%1,                             Timothy J.%George%NULL%1,                             Gary S.%Schwartz%NULL%1,                             Britton A.%Blough%NULL%1,                             Robert L.%Gottlieb%NULL%1,                             Gonzo%Gonzalez-Stawinski%NULL%1,                             Anita R.%Krueger%NULL%1,                             Kara%Monday%NULL%1,                             Ramachandra C.%Reddy%NULL%1,                             Jorge F.%Velazco%NULL%1,                             Omar%Hernandez%NULL%1,                             Chris%Martin%NULL%1,                             Jenelle%Sheasby%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Joe%Zhang%NULL%1,                             Blair%Merrick%NULL%2,                             Blair%Merrick%NULL%0,                             Genex L.%Correa%NULL%1,                             Luigi%Camporota%NULL%1,                             Andrew%Retter%NULL%1,                             Andrew%Doyle%NULL%1,                             Guy W.%Glover%NULL%2,                             Guy W.%Glover%NULL%0,                             Peter B.%Sherren%NULL%1,                             Stephen J.%Tricklebank%NULL%1,                             Sangita%Agarwal%NULL%1,                             Boris E.%Lams%NULL%1,                             Nicholas A.%Barrett%NULL%1,                             Nicholas%Ioannou%NULL%1,                             Jonathan%Edgeworth%NULL%1,                             Christopher I.S.%Meadows%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Waqas%Akhtar%NULL%0, Olusegun%Olusanya%NULL%2, Olusegun%Olusanya%NULL%0, Marta Montero%Baladia%NULL%1, Harriet%Young%NULL%1, Sachin%Shah%s.shah4@nhs.net%1]</t>
+  </si>
+  <si>
+    <t>Springer Singapore</t>
+  </si>
+  <si>
+    <t>[Ryan P%Barbaro%NULL%0, Graeme%MacLaren%NULL%0, Philip S%Boonstra%NULL%0, Theodore J%Iwashyna%NULL%0, Arthur S%Slutsky%NULL%0, Eddy%Fan%NULL%0, Robert H%Bartlett%NULL%0, Joseph E%Tonna%NULL%0, Robert%Hyslop%NULL%0, Jeffrey J%Fanning%NULL%0, Peter T%Rycus%NULL%0, Steve J%Hyer%NULL%0, Marc M%Anders%NULL%0, Cara L%Agerstrand%NULL%0, Katarzyna%Hryniewicz%NULL%0, Rodrigo%Diaz%NULL%0, Roberto%Lorusso%NULL%0, Alain%Combes%NULL%0, Daniel%Brodie%NULL%0, Peta%Alexander%NULL%0, Nicholas%Barrett%NULL%0, Jan%Bělohlávek%NULL%0, Dale%Fisher%NULL%0, John%Fraser%NULL%0, Ali Ait%Hssain%NULL%0, Jae Sung%Jung%NULL%0, Michael%McMullan%NULL%0, Yatin%Mehta%NULL%0, Mark T.%Ogino%NULL%0, Matthew L.%Paden%NULL%0, Kiran%Shekar%NULL%0, Christine%Stead%NULL%0, Yasir%Abu-Omar%NULL%0, Vanni%Agnoletti%NULL%0, Anzila%Akbar%NULL%0, Huda%Alfoudri%NULL%0, Carlos%Alviar%NULL%0, Vladimir%Aronsky%NULL%0, Erin%August%NULL%0, Georg%Auzinger%NULL%0, Hilda%Aveja%NULL%0, Rhonda%Bakken%NULL%0, Joan%Balcells%NULL%0, Sripal%Bangalore%NULL%0, Bernard W.%Barnes%NULL%0, Alaiza%Bautista%NULL%0, Lorraine L.%Bellows%NULL%0, Felipe%Beltran%NULL%0, Peyman%Benharash%NULL%0, Marco%Benni%NULL%0, Jennifer%Berg%NULL%0, Pietro%Bertini%NULL%0, Pablo%Blanco-Schweizer%NULL%0, Melissa%Brunsvold%NULL%0, Jenny%Budd%NULL%0, Debra%Camp%NULL%0, Mark%Caridi-Scheible%NULL%0, Edmund%Carton%NULL%0, Elena%Casanova-Ghosh%NULL%0, Anthony%Castleberry%NULL%0, Christopher T.%Chipongian%NULL%0, Chang Woo%Choi%NULL%0, Alessandro%Circelli%NULL%0, Elliott%Cohen%NULL%0, Michael%Collins%NULL%0, Scott%Copus%NULL%0, Jill%Coy%NULL%0, Brandon%Crist%NULL%0, Leonora%Cruz%NULL%0, Mirosław%Czuczwar%NULL%0, Mani%Daneshmand%NULL%0, Daniel%Davis II%NULL%0, Kim%De la Cruz%NULL%0, Cyndie%Devers%NULL%0, Toni%Duculan%NULL%0, Lucian%Durham%NULL%0, Subbarao%Elapavaluru%NULL%0, Carlos V.%Elzo Kraemer%NULL%0, EDMÍLSON CARDOSO%Filho%NULL%0, Jillian%Fitzgerald%NULL%0, Giuseppe%Foti%NULL%0, Matthew%Fox%NULL%0, David%Fritschen%NULL%0, David%Fullerton%NULL%0, Elton%Gelandt%NULL%0, Stacy%Gerle%NULL%0, Marco%Giani%NULL%0, Si Guim%Goh%NULL%0, Sara%Govener%NULL%0, Julie%Grone%NULL%0, Miles%Guber%NULL%0, Vadim%Gudzenko%NULL%0, Daniel%Gutteridge%NULL%0, Jennifer%Guy%NULL%0, Jonathan%Haft%NULL%0, Cameron%Hall%NULL%0, Ibrahim Fawzy%Hassan%NULL%0, Rubén%Herrán%NULL%0, Hitoshi%Hirose%NULL%0, Abdulsalam Saif%Ibrahim%NULL%0, Don%Igielski%NULL%0, Felicia A.%Ivascu%NULL%0, Jaume%Izquierdo Blasco%NULL%0, Julie%Jackson%NULL%0, Harsh%Jain%NULL%0, Bhavini%Jaiswal%NULL%0, Andrea C.%Johnson%NULL%0, Jenniver A.%Jurynec%NULL%0, Norma M%Kellter%NULL%0, Adam%Kohl%NULL%0, Zachary%Kon%NULL%0, Markus%Kredel%NULL%0, Karen%Kriska%NULL%0, Chandra%Kunavarapu%NULL%0, Oude%Lansink-Hartgring%NULL%0, Jeliene%LaRocque%NULL%0, Sharon Beth%Larson%NULL%0, Tracie%Layne%NULL%0, Stephane%Ledot%NULL%0, Napolitan%Lena%NULL%0, Jonathan%Lillie%NULL%0, Gösta%Lotz%NULL%0, Mark%Lucas%NULL%0, Lee%Ludwigson%NULL%0, Jacinta J.%Maas%NULL%0, Joanna%Maertens%NULL%0, David%Mast%NULL%0, Scott%McCardle%NULL%0, Bernard%McDonald%NULL%0, Allison%McLarty%NULL%0, Chelsea%McMahon%NULL%0, Patrick%Meybohm%NULL%0, Bart%Meyns%NULL%0, Casey%Miller%NULL%0, Fernando%Moraes Neto%NULL%0, Kelly%Morris%NULL%0, Ralf%Muellenbach%NULL%0, Meghan%Nicholson%NULL%0, Serena%O'Brien%NULL%0, Kathryn%O'Keefe%NULL%0, Tawnya%Ogston%NULL%0, Gary%Oldenburg%NULL%0, Fabiana M.%Oliveira%NULL%0, Emily%Oppel%NULL%0, Diego%Pardo%NULL%0, Diego%Pardo%NULL%0, Sara J.%Parker%NULL%0, Finn M.%Pedersen%NULL%0, Crescens%Pellecchia%NULL%0, Jose A.S.%Pelligrini%NULL%0, Thao T.N.%Pham%NULL%0, Ann R.%Phillips%NULL%0, Tasneem%Pirani%NULL%0, Paweł%Piwowarczyk%NULL%0, Robert%Plambeck%NULL%0, William%Pruett%NULL%0, Brittany%Quandt%NULL%0, Kollengode%Ramanathan%NULL%0, Alejandro%Rey%NULL%0, Christian%Reyher%NULL%0, Jordi%Riera del Brio%NULL%0, Rachel%Roberts%NULL%0, David%Roe%NULL%0, Peter P.%Roeleveld%NULL%0, Janet%Rudy%NULL%0, Luis F.%Rueda%NULL%0, Emanuele%Russo%NULL%0, Jesús%Sánchez Ballesteros%NULL%0, Nancy%Satou%NULL%0, Mauricio Guidi%Saueressig%NULL%0, Paul C.%Saunders%NULL%0, Margaret%Schlotterbeck%NULL%0, Patricia%Schwarz%NULL%0, Nicole%Scriven%NULL%0, Alexis%Serra%NULL%0, Mohammad%Shamsah%NULL%0, Lucy%Sim%NULL%0, Alexandra%Smart%NULL%0, Adam%Smith%NULL%0, Deane%Smith%NULL%0, Maggie%Smith%NULL%0, Neel%Sodha%NULL%0, Michael%Sonntagbauer%NULL%0, Marc%Sorenson%NULL%0, Eric B%Stallkamp%NULL%0, Allison%Stewart%NULL%0, Kathy%Swartz%NULL%0, Koji%Takeda%NULL%0, Shaun%Thompson%NULL%0, Bridget%Toy%NULL%0, Divina%Tuazon%NULL%0, Makoto%Uchiyama%NULL%0, Obiora I.%Udeozo%NULL%0, Scott%van Poppel%NULL%0, Corey%Ventetuolo%NULL%0, Leen%Vercaemst%NULL%0, Nguyen V.%Vinh Chau%NULL%0, I-Wen%Wang%NULL%0, Carrie%Williamson%NULL%0, Brock%Wilson%NULL%0, Helen%Winkels%NULL%0]</t>
+  </si>
+  <si>
+    <t>Elsevier Ltd.</t>
+  </si>
+  <si>
+    <t>[Matthew%Charlton%NULL%0, Susan%Dashey%NULL%1, Abigail%Stubbs%NULL%1, Florence YL%Lai%NULL%1, Paul W%Bird%NULL%1, Vinay%Badhwar%NULL%1, Julian W%Tang%NULL%1]</t>
+  </si>
+  <si>
+    <t>The British Infection Association. Published by Elsevier Ltd.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No study has compared patients with COVID-19-related refractory ARDS requiring veno-venous extracorporeal membrane oxygenation (V-V ECMO) to a relevant and homogenous control population.
+ We aimed to compare the outcomes, the clinical characteristics, and the adverse effects of COVID-19 patients to a retrospective cohort of influenza patients.
+ This retrospective case-control study was conducted in the ICUs of Lille and Rouen University Hospitals between January 2014 and May 2020. Two independent cohorts of patients with ARDS requiring V-V ECMO infected with either COVID-19 (n = 30) or influenza (n = 22) were compared.
+ A 3-month follow-up was completed for all patients.
+ Median age of COVID-19 and influenza patients was similar (57 vs.
+ 55 years; p = 0.62).
+ The 28-day mortality rate did not significantly differ between COVID-19 (43.3%) and influenza patients (50%, p = 0.63).
+ There was no significant difference considering the cumulative incidence of ECMO weaning, hospital discharge, and 3-month survival.
+ COVID-19 patients had a lower SAPS II score (58 [37–64] vs.
+ 68 [52–83]; p = 0.039), a higher body mass index (33 [29–38] vs.
+ 30 [26–34] kg/m2; p = 0.05), and were cannulated later (median delay between mechanical support and V-V ECMO 6 vs.
+ 3 days, p = 0.004) compared with influenza patients.
+ No difference in overall adverse events was observed between COVID-19 and influenza patients (70% vs.
+ 95.5% respectively; p = 0.23).
+ Despite differences in clinical presentation before V-V ECMO implantation, 28-day and 3-month mortality rate did not differ between COVID-19 and influenza patients.
+ Considering the lack of specific treatment for COVID-19, V-V ECMO should be considered as a relevant rescue organ support.
+</t>
+  </si>
+  <si>
+    <t>[Nicolas%Cousin%Nicolas.COUSIN@CHRU-LILLE.FR%0, Claire%Bourel%claire.bourel.etu@univ-lille.fr%1, Dorothee%Carpentier%Dorothee.Carpentier@chu-rouen.fr%1, Julien%Goutay%Julien.LABREUCHE@CHRU-LILLE.FR%0, Agnes%Mugnier%Agnes.MUGNIER@CHRU-LILLE.FR%1, Julien%Labreuche%Julien.LABREUCHE@CHRU-LILLE.FR%0, Elise%Godeau%elisegodeau@gmail.com%1, Thomas%Clavier%thomas.clavier@chu-rouen.fr%1, Steven%Grange%Steven.Grange@chu-rouen.fr%1, Fabienne%Tamion%Fabienne.Tamion@chu-rouen.fr%1, Arthur%Durand%Arthur.DURAND@CHRU-LILLE.FR%0, Mouhamed D.%Moussa%Mouhamed.MOUSSA@CHRU-LILLE.FR%1, Thibault%Duburcq%NULL%0]</t>
+  </si>
+  <si>
+    <t>Lippincott Williams &amp;amp; Wilkins</t>
+  </si>
+  <si>
+    <t>[Pierre-Emmanuel%Falcoz%NULL%0, Alexandra%Monnier%NULL%1, Marc%Puyraveau%NULL%1, Stephanie%Perrier%NULL%1, Pierre-Olivier%Ludes%NULL%1, Anne%Olland%NULL%1, Paul-Michel%Mertes%NULL%2, Francis%Schneider%NULL%2, Julie%Helms%NULL%0, NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>American Thoracic Society</t>
+  </si>
+  <si>
+    <t>[Pierre%Huette%huette.pierre@chu-amiens.fr%0, Christophe%Beyls%NULL%2, Christophe%Beyls%NULL%0, Mathieu%Guilbart%NULL%0, Alexandre%Coquet%NULL%1, Pascal%Berna%NULL%1, Guillaume%Haye%NULL%1, Pierre-Alexandre%Roger%NULL%0, Patricia%Besserve%NULL%1, Michael%Bernasinski%NULL%1, Hervé%Dupont%NULL%1, Osama%Abou-Arab%NULL%1, Yazine%Mahjoub%NULL%0]</t>
+  </si>
+  <si>
+    <t>Springer International Publishing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Veno‐venous extracorporeal membrane oxygenation (V‐V ECMO) is used to sustain blood oxygenation and decarboxylation in severe acute respiratory distress syndrome (ARDS).
+ It is under debate if V‐V ECMO is as appropriate for coronavirus disease 2019 (Covid‐19) ARDS as it is for influenza.
+ In this retrospective study, we analyzed all patients with confirmed SARS‐CoV‐2 or influenza A/B infection, ARDS and V‐V ECMO, treated at our medical intensive care unit (ICU) between October 2010 and June 2020. Baseline and procedural characteristics as well as survival 30 days after ECMO cannulation were analyzed.
+ A total of 62 V‐V ECMO patients were included (15 with Covid‐19 and 47 with influenza).
+ Both groups had similar baseline characteristics at cannulation.
+ Thirty days after ECMO cannulation, 13.3% of all patients with Covid‐19 were discharged alive from our ICU compared to 44.7% with influenza (P = .
+03).
+ Patients with Covid‐19 had fewer ECMO‐free days (0 (0‐9.7) days vs.
+ 13.2 (0‐22.1) days; P = .
+05).
+ Cumulative incidences of 30‐day‐survival showed no significant differences (48.6% in Covid‐19 patients, 63.7% in influenza patients; P = .
+23).
+ ICU treatment duration was significantly longer in ARDS patients with V‐V ECMO for Covid‐19 compared to influenza.
+ Thirty‐day mortality was higher in Covid‐19, but not significant.
+</t>
+  </si>
+  <si>
+    <t>[Markus%Jäckel%markus.jaeckel@universitaets-herzzentrum.de%0, Jonathan%Rilinger%NULL%2, Jonathan%Rilinger%NULL%0, Corinna Nadine%Lang%NULL%2, Corinna Nadine%Lang%NULL%0, Viviane%Zotzmann%NULL%1, Klaus%Kaier%NULL%1, Peter%Stachon%NULL%1, Paul Marc%Biever%NULL%1, Tobias%Wengenmayer%NULL%0, Daniel%Duerschmied%NULL%1, Christoph%Bode%NULL%1, Dawid Leander%Staudacher%NULL%1, Alexander%Supady%NULL%1]</t>
+  </si>
+  <si>
+    <t>John Wiley and Sons Inc.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+              •
+              19 patients (24%) were treated with ECMO among 80 mechanical ventilation-supported patients.
+</t>
+  </si>
+  <si>
+    <t>[Woo Sung%Jang%NULL%0, JaeBum%Kim%NULL%1, Jonghyun%Baek%NULL%1, Hanna%Jung%NULL%1, Jae Seok%Jang%NULL%1, Jae Seok%Park%NULL%0, Tak-Hyuk%Oh%NULL%1, Se Yong%Jang%NULL%1, Yun Seok%Kim%NULL%1, Yong Shik%Kwon%NULL%0]</t>
+  </si>
+  <si>
+    <t>Elsevier Inc.</t>
+  </si>
+  <si>
+    <t>[C.%Le Breton%NULL%0, S.%Besset%NULL%1, S.%Freita-Ramos%NULL%1, M.%Amouretti%NULL%1, P.A.%Billiet%NULL%1, M.%Dao%NULL%1, L.M.%Dumont%NULL%1, L.%Federici%NULL%1, B.%Gaborieau%NULL%1, D.%Longrois%NULL%1, P.%Postel-Vinay%NULL%1, C.%Vuillard%NULL%1, N.%Zucman%NULL%1, G.%Lebreton%NULL%1, A.%Combes%NULL%1, D.%Dreyfuss%NULL%1, J.D.%Ricard%NULL%1, D.%Roux%NULL%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acute respiratory distress syndrome (ARDS) related to Coronavirus disease (COVID-19) is associated with high mortality.
+ It has been suggested that venovenous extracorporeal membrane oxygenation (ECMO) was suitable in this indication, albeit the effects of ECMO on the mechanical respiratory parameters have been scarcely described.
+ In this case-series, we prospectively described the use of venovenous ECMO and its effects on mechanical respiratory parameters in eleven COVID-19 patients with severe ARDS.
+ Implantation of ECMO occurred 6 [3–11] days after the onset of mechanical ventilation.
+ At the time of ECMO implantation, all patients received neuromuscular blocking agents, three (27%) received inhaled nitric oxide and prone positioning was performed in all patients with 4 [3−5] sessions of PP per patient.
+ Under ECMO, the tidal volume was significantly decreased from 6.1 [4.0–6.3] to 3.4 [2.5–3.6] mL/kg of predicted body weight and the positive end-expiratory pressure level was increased by 25 ± 27% whereas the driving pressure and the mechanical power decreased by 33 ± 25% and 71 ± 27%, respectively.
+ The PaO2/FiO2 ratio significantly increased from 68 [58–89] to 168 [137–218] and the oxygenation index significantly decreased from 28 [26–35] to 13 [10–15].
+ The duration of ECMO was 12 [8–25] days.
+ Nine (82%) patients experienced ECMO-related complications and the main complication was major bleeding requiring blood transfusions.
+ Intensive care unit mortality rate was 55% but no patient died from ECMO-related complications.
+ In COVID-19 patients with severe ARDS, venovenous ECMO allowed ultra-protective ventilation, improved oxygenation and should be considered in highly selected patients with the most severe ARDS.
+</t>
+  </si>
+  <si>
+    <t>[Mathieu%Jozwiak%NULL%0, Jean-Daniel%Chiche%NULL%0, Julien%Charpentier%NULL%1, Zakaria%Ait Hamou%NULL%1, Paul%Jaubert%NULL%0, Sarah%Benghanem%NULL%1, Pierre%Dupland%NULL%1, Ariane%Gavaud%NULL%1, Frédéric%Péne%NULL%1, Alain%Cariou%NULL%1, Jean-Paul%Mira%NULL%1, Lee S.%Nguyen%NULL%1]</t>
+  </si>
+  <si>
+    <t>Frontiers Media S.A.</t>
+  </si>
+  <si>
+    <t>[Kevin%Roedl%NULL%0, Dominik%Jarczak%NULL%0, Liina%Thasler%NULL%0, Martin%Bachmann%NULL%0, Frank%Schulte%NULL%0, Berthold%Bein%NULL%0, Christian Friedrich%Weber%NULL%0, Ulrich%Schäfer%NULL%0, Carsten%Veit%NULL%0, Hans-Peter%Hauber%NULL%0, Sebastian%Kopp%NULL%0, Karsten%Sydow%NULL%0, Andreas%de Weerth%NULL%0, Marc%Bota%NULL%0, Rüdiger%Schreiber%NULL%0, Oliver%Detsch%NULL%0, Jan-Peer%Rogmann%NULL%0, Daniel%Frings%NULL%0, Barbara%Sensen%NULL%0, Christoph%Burdelski%NULL%0, Olaf%Boenisch%NULL%0, Axel%Nierhaus%NULL%0, Geraldine%de Heer%NULL%0, Stefan%Kluge%NULL%0]</t>
+  </si>
+  <si>
+    <t>Australian College of Critical Care Nurses Ltd. Published by Elsevier Ltd.</t>
+  </si>
+  <si>
+    <t>[Emily%Shih%NULL%0, J. Michael%DiMaio%NULL%1, John J.%Squiers%NULL%1, Jasjit K.%Banwait%NULL%1, Dan M.%Meyer%NULL%1, Timothy J.%George%NULL%1, Gary S.%Schwartz%NULL%1, Britton A.%Blough%NULL%1, Robert L.%Gottlieb%NULL%1, Gonzo%Gonzalez-Stawinski%NULL%1, Anita R.%Krueger%NULL%1, Kara%Monday%NULL%1, Ramachandra C.%Reddy%NULL%1, Jorge F.%Velazco%NULL%1, Omar%Hernandez%NULL%1, Chris%Martin%NULL%1, Jenelle%Sheasby%NULL%1]</t>
+  </si>
+  <si>
+    <t>by The American Association for Thoracic Surgery</t>
+  </si>
+  <si>
+    <t>[Joe%Zhang%NULL%0, Blair%Merrick%NULL%2, Blair%Merrick%NULL%0, Genex L.%Correa%NULL%1, Luigi%Camporota%NULL%1, Andrew%Retter%NULL%1, Andrew%Doyle%NULL%1, Guy W.%Glover%NULL%2, Guy W.%Glover%NULL%0, Peter B.%Sherren%NULL%1, Stephen J.%Tricklebank%NULL%1, Sangita%Agarwal%NULL%1, Boris E.%Lams%NULL%1, Nicholas A.%Barrett%NULL%1, Nicholas%Ioannou%NULL%1, Jonathan%Edgeworth%NULL%1, Christopher I.S.%Meadows%NULL%1]</t>
+  </si>
+  <si>
+    <t>European Respiratory Society</t>
   </si>
 </sst>
 </file>
@@ -2021,25 +2230,25 @@
         <v>44110.0</v>
       </c>
       <c r="C2" t="s">
-        <v>94</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>27</v>
       </c>
       <c r="E2" t="s">
-        <v>491</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="G2" t="s">
-        <v>96</v>
+        <v>32</v>
       </c>
       <c r="H2" t="s">
         <v>34</v>
       </c>
       <c r="I2" t="s">
-        <v>367</v>
+        <v>46</v>
       </c>
       <c r="J2" t="s">
         <v>46</v>
@@ -2056,10 +2265,10 @@
         <v>35</v>
       </c>
       <c r="D3" t="s">
-        <v>254</v>
+        <v>36</v>
       </c>
       <c r="E3" t="s">
-        <v>492</v>
+        <v>531</v>
       </c>
       <c r="F3" t="s">
         <v>38</v>
@@ -2071,10 +2280,10 @@
         <v>40</v>
       </c>
       <c r="I3" t="s">
-        <v>369</v>
+        <v>46</v>
       </c>
       <c r="J3" t="s">
-        <v>46</v>
+        <v>532</v>
       </c>
     </row>
     <row r="4">
@@ -2091,7 +2300,7 @@
         <v>42</v>
       </c>
       <c r="E4" t="s">
-        <v>493</v>
+        <v>533</v>
       </c>
       <c r="F4" t="s">
         <v>44</v>
@@ -2103,10 +2312,10 @@
         <v>34</v>
       </c>
       <c r="I4" t="s">
-        <v>371</v>
+        <v>46</v>
       </c>
       <c r="J4" t="s">
-        <v>46</v>
+        <v>534</v>
       </c>
     </row>
     <row r="5">
@@ -2123,7 +2332,7 @@
         <v>46</v>
       </c>
       <c r="E5" t="s">
-        <v>494</v>
+        <v>535</v>
       </c>
       <c r="F5" t="s">
         <v>48</v>
@@ -2135,10 +2344,10 @@
         <v>49</v>
       </c>
       <c r="I5" t="s">
-        <v>371</v>
+        <v>46</v>
       </c>
       <c r="J5" t="s">
-        <v>46</v>
+        <v>536</v>
       </c>
     </row>
     <row r="6">
@@ -2152,10 +2361,10 @@
         <v>50</v>
       </c>
       <c r="D6" t="s">
-        <v>51</v>
+        <v>537</v>
       </c>
       <c r="E6" t="s">
-        <v>495</v>
+        <v>538</v>
       </c>
       <c r="F6" t="s">
         <v>53</v>
@@ -2167,10 +2376,10 @@
         <v>54</v>
       </c>
       <c r="I6" t="s">
-        <v>374</v>
+        <v>46</v>
       </c>
       <c r="J6" t="s">
-        <v>46</v>
+        <v>539</v>
       </c>
     </row>
     <row r="7">
@@ -2187,7 +2396,7 @@
         <v>46</v>
       </c>
       <c r="E7" t="s">
-        <v>496</v>
+        <v>540</v>
       </c>
       <c r="F7" t="s">
         <v>57</v>
@@ -2199,10 +2408,10 @@
         <v>34</v>
       </c>
       <c r="I7" t="s">
-        <v>374</v>
+        <v>46</v>
       </c>
       <c r="J7" t="s">
-        <v>46</v>
+        <v>541</v>
       </c>
     </row>
     <row r="8">
@@ -2213,28 +2422,28 @@
         <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>190</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>27</v>
       </c>
       <c r="E8" t="s">
-        <v>292</v>
+        <v>30</v>
       </c>
       <c r="F8" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="G8" t="s">
-        <v>192</v>
+        <v>32</v>
       </c>
       <c r="H8" t="s">
-        <v>193</v>
+        <v>34</v>
       </c>
       <c r="I8" t="s">
         <v>46</v>
       </c>
       <c r="J8" t="s">
-        <v>410</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9">
@@ -2251,7 +2460,7 @@
         <v>46</v>
       </c>
       <c r="E9" t="s">
-        <v>497</v>
+        <v>542</v>
       </c>
       <c r="F9" t="s">
         <v>60</v>
@@ -2263,10 +2472,10 @@
         <v>61</v>
       </c>
       <c r="I9" t="s">
-        <v>369</v>
+        <v>46</v>
       </c>
       <c r="J9" t="s">
-        <v>46</v>
+        <v>543</v>
       </c>
     </row>
     <row r="10">
@@ -2280,10 +2489,10 @@
         <v>62</v>
       </c>
       <c r="D10" t="s">
-        <v>63</v>
+        <v>544</v>
       </c>
       <c r="E10" t="s">
-        <v>498</v>
+        <v>545</v>
       </c>
       <c r="F10" t="s">
         <v>65</v>
@@ -2295,10 +2504,10 @@
         <v>66</v>
       </c>
       <c r="I10" t="s">
-        <v>374</v>
+        <v>46</v>
       </c>
       <c r="J10" t="s">
-        <v>46</v>
+        <v>546</v>
       </c>
     </row>
     <row r="11">
@@ -2312,10 +2521,10 @@
         <v>67</v>
       </c>
       <c r="D11" t="s">
-        <v>68</v>
+        <v>547</v>
       </c>
       <c r="E11" t="s">
-        <v>499</v>
+        <v>548</v>
       </c>
       <c r="F11" t="s">
         <v>70</v>
@@ -2327,10 +2536,10 @@
         <v>34</v>
       </c>
       <c r="I11" t="s">
-        <v>371</v>
+        <v>46</v>
       </c>
       <c r="J11" t="s">
-        <v>46</v>
+        <v>549</v>
       </c>
     </row>
     <row r="12">
@@ -2347,7 +2556,7 @@
         <v>46</v>
       </c>
       <c r="E12" t="s">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="F12" t="s">
         <v>73</v>
@@ -2359,10 +2568,10 @@
         <v>34</v>
       </c>
       <c r="I12" t="s">
-        <v>371</v>
+        <v>46</v>
       </c>
       <c r="J12" t="s">
-        <v>46</v>
+        <v>549</v>
       </c>
     </row>
     <row r="13">
@@ -2376,10 +2585,10 @@
         <v>74</v>
       </c>
       <c r="D13" t="s">
-        <v>75</v>
+        <v>551</v>
       </c>
       <c r="E13" t="s">
-        <v>501</v>
+        <v>552</v>
       </c>
       <c r="F13" t="s">
         <v>77</v>
@@ -2391,10 +2600,10 @@
         <v>78</v>
       </c>
       <c r="I13" t="s">
-        <v>374</v>
+        <v>46</v>
       </c>
       <c r="J13" t="s">
-        <v>46</v>
+        <v>553</v>
       </c>
     </row>
     <row r="14">
@@ -2405,28 +2614,28 @@
         <v>18</v>
       </c>
       <c r="C14" t="s">
-        <v>199</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>27</v>
       </c>
       <c r="E14" t="s">
-        <v>298</v>
+        <v>30</v>
       </c>
       <c r="F14" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="G14" t="s">
-        <v>192</v>
+        <v>32</v>
       </c>
       <c r="H14" t="s">
-        <v>201</v>
+        <v>34</v>
       </c>
       <c r="I14" t="s">
         <v>46</v>
       </c>
       <c r="J14" t="s">
-        <v>417</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15">
@@ -2443,7 +2652,7 @@
         <v>80</v>
       </c>
       <c r="E15" t="s">
-        <v>502</v>
+        <v>554</v>
       </c>
       <c r="F15" t="s">
         <v>82</v>
@@ -2455,10 +2664,10 @@
         <v>83</v>
       </c>
       <c r="I15" t="s">
-        <v>371</v>
+        <v>46</v>
       </c>
       <c r="J15" t="s">
-        <v>46</v>
+        <v>555</v>
       </c>
     </row>
     <row r="16">
@@ -2475,7 +2684,7 @@
         <v>85</v>
       </c>
       <c r="E16" t="s">
-        <v>503</v>
+        <v>556</v>
       </c>
       <c r="F16" t="s">
         <v>87</v>
@@ -2487,10 +2696,10 @@
         <v>88</v>
       </c>
       <c r="I16" t="s">
-        <v>371</v>
+        <v>46</v>
       </c>
       <c r="J16" t="s">
-        <v>46</v>
+        <v>557</v>
       </c>
     </row>
     <row r="17">
@@ -2507,7 +2716,7 @@
         <v>90</v>
       </c>
       <c r="E17" t="s">
-        <v>504</v>
+        <v>558</v>
       </c>
       <c r="F17" t="s">
         <v>92</v>
@@ -2519,10 +2728,10 @@
         <v>93</v>
       </c>
       <c r="I17" t="s">
-        <v>374</v>
+        <v>46</v>
       </c>
       <c r="J17" t="s">
-        <v>46</v>
+        <v>559</v>
       </c>
     </row>
   </sheetData>
